--- a/Statistical analyses/Linear mixed effect models, updated with Tukey.xlsx
+++ b/Statistical analyses/Linear mixed effect models, updated with Tukey.xlsx
@@ -10,7 +10,7 @@
     <sheet name="ReadMe" sheetId="1" r:id="rId1"/>
     <sheet name="Vmax" sheetId="2" r:id="rId2"/>
     <sheet name="litterChem" sheetId="3" r:id="rId3"/>
-    <sheet name="CAZynme metagenomic" sheetId="4" r:id="rId4"/>
+    <sheet name="CAZyme metagenomic" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
